--- a/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -711,34 +711,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="O4" t="n">
-        <v>58.5</v>
+        <v>59.42</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>0.36</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_11_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,11 +750,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -762,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -784,34 +780,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="O5" t="n">
-        <v>57.55</v>
+        <v>58.96</v>
       </c>
       <c r="P5" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.92</v>
+        <v>0.41</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -823,11 +819,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -835,14 +827,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -862,20 +854,20 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>57.15</v>
+        <v>58.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.39</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -884,7 +876,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,7 +907,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -931,33 +923,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="O7" t="n">
-        <v>57.13</v>
+        <v>57.55</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,14 +973,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1003,34 +995,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="O8" t="n">
-        <v>56.37</v>
+        <v>57.15</v>
       </c>
       <c r="P8" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>2.39</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,7 +1046,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1076,34 +1068,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="O9" t="n">
-        <v>55.86</v>
+        <v>57.13</v>
       </c>
       <c r="P9" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>0.99</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1134,7 +1126,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1156,27 +1148,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="O10" t="n">
-        <v>55.45</v>
+        <v>56.37</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.78</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1200,14 +1192,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1222,34 +1214,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="O11" t="n">
-        <v>54.95</v>
+        <v>55.86</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.39</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1273,7 +1265,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1295,28 +1287,174 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O12" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
         <v>1.31</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>53.79</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>1.87</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="n">
+      <c r="S14" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -961,11 +961,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -973,14 +969,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -995,34 +991,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="O8" t="n">
-        <v>57.15</v>
+        <v>57.55</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.39</v>
+        <v>0.92</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_20_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1046,14 +1042,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1068,34 +1064,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="O9" t="n">
-        <v>57.13</v>
+        <v>57.15</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.99</v>
+        <v>2.39</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1142,33 +1138,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="O10" t="n">
-        <v>56.37</v>
+        <v>57.13</v>
       </c>
       <c r="P10" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>0.99</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1192,7 +1188,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1214,34 +1210,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="O11" t="n">
-        <v>55.86</v>
+        <v>56.37</v>
       </c>
       <c r="P11" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1265,14 +1261,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1287,34 +1283,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="O12" t="n">
-        <v>55.45</v>
+        <v>55.86</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.78</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1361,33 +1357,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="O13" t="n">
-        <v>54.95</v>
+        <v>55.45</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1411,7 +1407,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1433,28 +1429,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O14" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
         <v>1.31</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>53.79</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>1.87</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1126,33 +1126,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="O10" t="n">
-        <v>58.26</v>
+        <v>58.48</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.52</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1164,11 +1164,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1183,7 +1179,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1199,33 +1195,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="O11" t="n">
-        <v>57.55</v>
+        <v>58.26</v>
       </c>
       <c r="P11" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1249,7 +1245,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1271,34 +1267,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="O12" t="n">
-        <v>57.15</v>
+        <v>57.55</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.39</v>
+        <v>0.92</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1322,14 +1318,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1344,34 +1340,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>57.13</v>
+        <v>57.15</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.99</v>
+        <v>2.39</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1418,33 +1414,33 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="O14" t="n">
-        <v>56.37</v>
+        <v>57.13</v>
       </c>
       <c r="P14" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>0.99</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,7 +1464,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1490,34 +1486,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="O15" t="n">
-        <v>55.86</v>
+        <v>56.37</v>
       </c>
       <c r="P15" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1541,14 +1537,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1563,34 +1559,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="O16" t="n">
-        <v>55.45</v>
+        <v>55.86</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.78</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1637,33 +1633,33 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="O17" t="n">
-        <v>54.95</v>
+        <v>55.45</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1687,7 +1683,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1709,28 +1705,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.31</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>53.79</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>1.87</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S19" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -643,33 +643,33 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>59.75</v>
+        <v>59.95</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_32_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_23_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -718,27 +718,27 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="O4" t="n">
-        <v>59.74</v>
+        <v>59.75</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_11_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_32_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -780,34 +780,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="O5" t="n">
-        <v>59.43</v>
+        <v>59.74</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_11_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -849,34 +849,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.07</v>
-      </c>
       <c r="O6" t="n">
-        <v>59.27</v>
+        <v>59.43</v>
       </c>
       <c r="P6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -919,33 +919,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="O7" t="n">
-        <v>58.93</v>
+        <v>59.38</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_09_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_08_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,14 +965,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -987,34 +987,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="O8" t="n">
-        <v>58.69</v>
+        <v>59.29</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_24_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1034,14 +1034,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1056,34 +1056,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="O9" t="n">
-        <v>58.5</v>
+        <v>59.27</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1126,33 +1126,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="O10" t="n">
-        <v>58.48</v>
+        <v>59.07</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_55_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1195,106 +1195,102 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>58.26</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_47_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
         <v>3</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>WH</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>128</v>
-      </c>
-      <c r="H12" t="n">
-        <v>200</v>
-      </c>
-      <c r="I12" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="O12" t="n">
-        <v>57.55</v>
+        <v>58.98</v>
       </c>
       <c r="P12" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_39_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1306,11 +1302,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1318,14 +1310,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1340,7 +1332,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1348,26 +1342,24 @@
         <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>57.15</v>
+        <v>58.93</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.39</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_09_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1379,11 +1371,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1398,7 +1386,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1414,33 +1402,33 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="O14" t="n">
-        <v>57.13</v>
+        <v>58.86</v>
       </c>
       <c r="P14" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.99</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_59_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1452,11 +1440,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1471,7 +1455,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1487,33 +1471,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="O15" t="n">
-        <v>56.37</v>
+        <v>58.73</v>
       </c>
       <c r="P15" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_23_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1525,11 +1509,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1537,14 +1517,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1559,34 +1539,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="O16" t="n">
-        <v>55.86</v>
+        <v>58.69</v>
       </c>
       <c r="P16" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1598,11 +1578,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1610,14 +1586,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1632,34 +1608,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.28</v>
-      </c>
       <c r="O17" t="n">
-        <v>55.45</v>
+        <v>58.5</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1671,11 +1647,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1690,7 +1662,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1706,100 +1678,680 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="O18" t="n">
-        <v>54.95</v>
+        <v>58.48</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.39</v>
+        <v>1.46</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O19" t="n">
+        <v>58.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>200</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>57.55</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>57.15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O22" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O23" t="n">
+        <v>56.37</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>NCEK</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>128</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O24" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>50</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O25" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O26" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.31</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O27" t="n">
         <v>53.79</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P27" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q27" t="n">
         <v>1.87</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="S27" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><WH>60.15.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_52_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -612,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -665,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_23_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -681,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_32_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -803,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_11_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -849,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_08_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -987,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1026,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1079,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1095,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1148,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_55_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1164,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1217,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_47_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1233,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1286,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_39_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1302,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1355,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_09_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1371,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1424,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_59_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1440,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1493,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_23_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1509,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1562,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1578,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1608,7 +1698,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
@@ -1647,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1700,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1716,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1769,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1842,7 +1946,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1892,7 +1998,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
@@ -1988,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2061,7 +2171,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2111,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2207,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2280,7 +2396,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2330,7 +2448,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
